--- a/Stocks/ADANIENT.xlsx
+++ b/Stocks/ADANIENT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>111.95</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>140.63758273396991</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>138.1936418096908</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>67.834832288123266</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>1.3499999999999943</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>3.2999999999999829</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.4090909090909095</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>137.0728406264767</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>2.3127692030867877</v>
       </c>
       <c r="Y67">
         <v>2.6151611261791028</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>117.1</v>
+      </c>
+      <c r="D83">
+        <v>121.05</v>
+      </c>
+      <c r="E83">
+        <v>115.05</v>
+      </c>
+      <c r="F83">
+        <v>119.3</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>118.46666666666665</v>
+      </c>
+      <c r="H83">
+        <v>113.81755809910177</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>116.27221828097906</v>
+      </c>
+      <c r="K83">
+        <v>111.19365044882154</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>65.301600731867552</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>4.25</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>115.97069487801168</v>
+      </c>
+      <c r="W83">
+        <v>122.54844330757328</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-6.5777484295615949</v>
+      </c>
+      <c r="Y83">
+        <v>-5.7061405695689293</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>117.4</v>
+      </c>
+      <c r="D84">
+        <v>122.75</v>
+      </c>
+      <c r="E84">
+        <v>116.75</v>
+      </c>
+      <c r="F84">
+        <v>118.75</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>119.41666666666667</v>
+      </c>
+      <c r="H84">
+        <v>116.61711238288422</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>117.71172532965038</v>
+      </c>
+      <c r="K84">
+        <v>112.42839479352787</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>63.22932679433422</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>116.39828028139451</v>
+      </c>
+      <c r="W84">
+        <v>122.26707713664193</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-5.8687968552474246</v>
+      </c>
+      <c r="Y84">
+        <v>-5.7386718267046284</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>120.4</v>
+      </c>
+      <c r="D85">
+        <v>131.85</v>
+      </c>
+      <c r="E85">
+        <v>120.15</v>
+      </c>
+      <c r="F85">
+        <v>130.85</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>127.61666666666667</v>
+      </c>
+      <c r="H85">
+        <v>122.11688952477544</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>120.85356414528363</v>
+      </c>
+      <c r="K85">
+        <v>114.14430706163279</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>80.364700104566964</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>10.699999999999989</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>11.699999999999989</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.9145299145299145</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V85">
+        <v>118.62162177656458</v>
+      </c>
+      <c r="W85">
+        <v>122.90284920059437</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-4.2812274240297938</v>
+      </c>
+      <c r="Y85">
+        <v>-5.4471829461696615</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD85">
+        <f t="shared" si="35"/>
+        <v>121.5</v>
+      </c>
+      <c r="AE85">
+        <f t="shared" si="36"/>
+        <v>124.60000000000001</v>
+      </c>
+      <c r="AF85">
+        <f t="shared" si="37"/>
+        <v>126</v>
+      </c>
+      <c r="AG85">
+        <f t="shared" si="38"/>
+        <v>127.4</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>133</v>
+      </c>
+      <c r="D86">
+        <v>133.94999999999999</v>
+      </c>
+      <c r="E86">
+        <v>128.05000000000001</v>
+      </c>
+      <c r="F86">
+        <v>131.55000000000001</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>131.18333333333334</v>
+      </c>
+      <c r="H86">
+        <v>126.65011142905439</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>123.76388322410949</v>
+      </c>
+      <c r="K86">
+        <v>117.23446104793662</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>81.004815379721492</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>5.8999999999999773</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.59322033898305315</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>120.61060304170849</v>
+      </c>
+      <c r="W86">
+        <v>123.54337888943924</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-2.9327758477307526</v>
+      </c>
+      <c r="Y86">
+        <v>-4.9443015264818797</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>132.75</v>
+      </c>
+      <c r="D87">
+        <v>138.85</v>
+      </c>
+      <c r="E87">
+        <v>131.35</v>
+      </c>
+      <c r="F87">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>135.46666666666667</v>
+      </c>
+      <c r="H87">
+        <v>131.05838904786054</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>127.11635361875183</v>
+      </c>
+      <c r="K87">
+        <v>120.37124748172847</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>85.051381466916226</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>4.8499999999999943</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>7.5</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.64666666666666595</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>123.00897180452256</v>
+      </c>
+      <c r="W87">
+        <v>124.48090637911041</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-1.4719345745878485</v>
+      </c>
+      <c r="Y87">
+        <v>-4.2498281361030736</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="D88">
+        <v>136.44999999999999</v>
+      </c>
+      <c r="E88">
+        <v>128</v>
+      </c>
+      <c r="F88">
+        <v>130.5</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>131.65</v>
+      </c>
+      <c r="H88">
+        <v>131.35419452393029</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>129.1904972590292</v>
+      </c>
+      <c r="K88">
+        <v>122.06652581912215</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>64.121066218233707</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>8.4499999999999886</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.29585798816568087</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>124.16143768074986</v>
+      </c>
+      <c r="W88">
+        <v>124.92676516584297</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-0.76532748509310977</v>
+      </c>
+      <c r="Y88">
+        <v>-3.552928005901081</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>131.4</v>
+      </c>
+      <c r="D89">
+        <v>135.1</v>
+      </c>
+      <c r="E89">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="F89">
+        <v>132.94999999999999</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>132.94999999999999</v>
+      </c>
+      <c r="H89">
+        <v>132.15209726196514</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>130.50372009035604</v>
+      </c>
+      <c r="K89">
+        <v>124.00729785931723</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>68.310974559282727</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>2.1499999999999773</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>4.2999999999999829</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.49999999999999667</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>125.51352419140372</v>
+      </c>
+      <c r="W89">
+        <v>125.521078857262</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-7.5546658582794635E-3</v>
+      </c>
+      <c r="Y89">
+        <v>-2.8438533378925208</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>130.1</v>
+      </c>
+      <c r="D90">
+        <v>132.1</v>
+      </c>
+      <c r="E90">
+        <v>128.5</v>
+      </c>
+      <c r="F90">
+        <v>130.6</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>130.4</v>
+      </c>
+      <c r="H90">
+        <v>131.27604863098259</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>130.8584489591658</v>
+      </c>
+      <c r="K90">
+        <v>125.00567611280229</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>59.92108145313918</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>2.0999999999999943</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.5833333333333327</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>126.29605893118776</v>
+      </c>
+      <c r="W90">
+        <v>125.89729523820556</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>0.39876369298220027</v>
+      </c>
+      <c r="Y90">
+        <v>-2.1953299317175765</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>131.44999999999999</v>
+      </c>
+      <c r="D91">
+        <v>133.25</v>
+      </c>
+      <c r="E91">
+        <v>129.65</v>
+      </c>
+      <c r="F91">
+        <v>130.4</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>131.1</v>
+      </c>
+      <c r="H91">
+        <v>131.1880243154913</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>131.38990474601783</v>
+      </c>
+      <c r="K91">
+        <v>126.03774808773511</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>59.148258425018042</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.20833333333333368</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>126.9274344802358</v>
+      </c>
+      <c r="W91">
+        <v>126.2308289242644</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>0.69660555597140217</v>
+      </c>
+      <c r="Y91">
+        <v>-1.6169428341797807</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>130.9</v>
+      </c>
+      <c r="D92">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="E92">
+        <v>126.35</v>
+      </c>
+      <c r="F92">
+        <v>127.25</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>128.46666666666667</v>
+      </c>
+      <c r="H92">
+        <v>129.82734549107897</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>131.48103702468055</v>
+      </c>
+      <c r="K92">
+        <v>126.10713740157175</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>47.170809844061743</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>5.4500000000000171</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.16513761467889962</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>126.97705994481491</v>
+      </c>
+      <c r="W92">
+        <v>126.30632307802259</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>0.6707368667923248</v>
+      </c>
+      <c r="Y92">
+        <v>-1.1594068939853597</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>128.5</v>
+      </c>
+      <c r="D93">
+        <v>132.35</v>
+      </c>
+      <c r="E93">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="F93">
+        <v>131.35</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>130.63333333333333</v>
+      </c>
+      <c r="H93">
+        <v>130.23033941220615</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>131.67413990808487</v>
+      </c>
+      <c r="K93">
+        <v>126.57221797900024</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>60.262737904255935</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>3.1500000000000057</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>4.1500000000000057</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.75903614457831359</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>127.64981995330493</v>
+      </c>
+      <c r="W93">
+        <v>126.67992877594683</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>0.96989117735809316</v>
+      </c>
+      <c r="Y93">
+        <v>-0.73354727971666911</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="D94">
+        <v>134.9</v>
+      </c>
+      <c r="E94">
+        <v>130.4</v>
+      </c>
+      <c r="F94">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>132.86666666666667</v>
+      </c>
+      <c r="H94">
+        <v>131.54850303943641</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>132.39099770628823</v>
+      </c>
+      <c r="K94">
+        <v>127.42283620588908</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>65.365438823245412</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>2.9000000000000057</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>4.5</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.64444444444444571</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>128.51907842202723</v>
+      </c>
+      <c r="W94">
+        <v>127.17030442217299</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>1.3487739998542452</v>
+      </c>
+      <c r="Y94">
+        <v>-0.31708302380248621</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>133.9</v>
+      </c>
+      <c r="D95">
+        <v>134.5</v>
+      </c>
+      <c r="E95">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="F95">
+        <v>130.55000000000001</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>131.78333333333333</v>
+      </c>
+      <c r="H95">
+        <v>131.66591818638489</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>132.85966488266862</v>
+      </c>
+      <c r="K95">
+        <v>128.06220593791375</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>53.300127860965951</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>4.1999999999999886</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>5.9523809523809687E-2</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>128.83152789556152</v>
+      </c>
+      <c r="W95">
+        <v>127.42065224275277</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>1.4108756528087554</v>
+      </c>
+      <c r="Y95">
+        <v>2.8508711519762142E-2</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>131</v>
+      </c>
+      <c r="D96">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="E96">
+        <v>129.65</v>
+      </c>
+      <c r="F96">
+        <v>132.35</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>131.76666666666668</v>
+      </c>
+      <c r="H96">
+        <v>131.7162924265258</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>132.95751713096448</v>
+      </c>
+      <c r="K96">
+        <v>128.41504906282179</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>59.42747149064396</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>2.6999999999999886</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>3.6500000000000057</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.73972602739725601</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>129.37283129624436</v>
+      </c>
+      <c r="W96">
+        <v>127.78578911365997</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>1.5870421825843835</v>
+      </c>
+      <c r="Y96">
+        <v>0.34021540573268644</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>130.05000000000001</v>
+      </c>
+      <c r="D97">
+        <v>131.75</v>
+      </c>
+      <c r="E97">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="F97">
+        <v>130.75</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>130.56666666666666</v>
+      </c>
+      <c r="H97">
+        <v>131.14147954659623</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>132.68917999075015</v>
+      </c>
+      <c r="K97">
+        <v>128.58948260441696</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>51.866144774102452</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>1.5500000000000114</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>2.5500000000000114</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.60784313725490369</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>129.58470340451444</v>
+      </c>
+      <c r="W97">
+        <v>128.0053602904259</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>1.5793431140885446</v>
+      </c>
+      <c r="Y97">
+        <v>0.58804094740385804</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>131.65</v>
+      </c>
+      <c r="D98">
+        <v>132.9</v>
+      </c>
+      <c r="E98">
+        <v>130.1</v>
+      </c>
+      <c r="F98">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>131.4</v>
+      </c>
+      <c r="H98">
+        <v>131.27073977329812</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>132.73602888169455</v>
+      </c>
+      <c r="K98">
+        <v>128.92515313676876</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>53.927055885160577</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>2.8000000000000114</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.39285714285713924</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>129.83321057305068</v>
+      </c>
+      <c r="W98">
+        <v>128.24200026891288</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>1.5912103041378032</v>
+      </c>
+      <c r="Y98">
+        <v>0.78867481875064716</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>130.94999999999999</v>
+      </c>
+      <c r="D99">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="E99">
+        <v>130.1</v>
+      </c>
+      <c r="F99">
+        <v>130.85</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>131.04999999999998</v>
+      </c>
+      <c r="H99">
+        <v>131.16036988664905</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>132.6169113524291</v>
+      </c>
+      <c r="K99">
+        <v>129.18623021748681</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>51.771949680520699</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>2.0999999999999943</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.35714285714285809</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>129.98963971565826</v>
+      </c>
+      <c r="W99">
+        <v>128.43518543417858</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>1.5544542814796785</v>
+      </c>
+      <c r="Y99">
+        <v>0.94183071129645346</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>131.75</v>
+      </c>
+      <c r="D100">
+        <v>131.75</v>
+      </c>
+      <c r="E100">
+        <v>129.1</v>
+      </c>
+      <c r="F100">
+        <v>129.35</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>130.06666666666669</v>
+      </c>
+      <c r="H100">
+        <v>130.61351827665789</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>132.42426438522264</v>
+      </c>
+      <c r="K100">
+        <v>129.1670679469342</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>42.642616820299594</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>2.6500000000000057</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>9.4339622641509233E-2</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>129.89123360555698</v>
+      </c>
+      <c r="W100">
+        <v>128.50294947609129</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>1.3882841294656885</v>
+      </c>
+      <c r="Y100">
+        <v>1.0311213949303004</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>129.4</v>
+      </c>
+      <c r="D101">
+        <v>130.94999999999999</v>
+      </c>
+      <c r="E101">
+        <v>124.9</v>
+      </c>
+      <c r="F101">
+        <v>127.6</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>127.81666666666666</v>
+      </c>
+      <c r="H101">
+        <v>129.21509247166227</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>132.0966500773954</v>
+      </c>
+      <c r="K101">
+        <v>128.21883062539325</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>33.919834273799403</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>2.6999999999999886</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>6.0499999999999829</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.44628099173553659</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>129.53873612777898</v>
+      </c>
+      <c r="W101">
+        <v>128.43606432971416</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>1.1026717980648186</v>
+      </c>
+      <c r="Y101">
+        <v>1.0454314755572041</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>126.85</v>
+      </c>
+      <c r="D102">
+        <v>126.85</v>
+      </c>
+      <c r="E102">
+        <v>121</v>
+      </c>
+      <c r="F102">
+        <v>121.75</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>123.2</v>
+      </c>
+      <c r="H102">
+        <v>126.20754623583113</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>130.93072783797419</v>
+      </c>
+      <c r="K102">
+        <v>126.61464604197253</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>18.288091220061805</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>5.8499999999999943</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.12820512820512833</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>128.34046903119759</v>
+      </c>
+      <c r="W102">
+        <v>127.94080030529089</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>0.39966872590669311</v>
+      </c>
+      <c r="Y102">
+        <v>0.91627892562710189</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="35"/>
+        <v>126.2</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="36"/>
+        <v>124.60000000000001</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="37"/>
+        <v>123.95</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="38"/>
+        <v>123.25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>121.9</v>
+      </c>
+      <c r="D103">
+        <v>122.05</v>
+      </c>
+      <c r="E103">
+        <v>113.75</v>
+      </c>
+      <c r="F103">
+        <v>116.8</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>117.53333333333335</v>
+      </c>
+      <c r="H103">
+        <v>121.87043978458223</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>128.95723276286881</v>
+      </c>
+      <c r="K103">
+        <v>123.75583581042308</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>12.295086494134569</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>3.0499999999999972</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>8.2999999999999972</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.36746987951807208</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>126.56501225716718</v>
+      </c>
+      <c r="W103">
+        <v>127.11555583823231</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-0.5505435810651278</v>
+      </c>
+      <c r="Y103">
+        <v>0.62291442428865595</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>116.6</v>
+      </c>
+      <c r="D104">
+        <v>120.2</v>
+      </c>
+      <c r="E104">
+        <v>114.8</v>
+      </c>
+      <c r="F104">
+        <v>118.55</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>117.85000000000001</v>
+      </c>
+      <c r="H104">
+        <v>119.86021989229113</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>127.01118103778686</v>
+      </c>
+      <c r="K104">
+        <v>121.7656500747735</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>23.389568097979485</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>3.75</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.69444444444444375</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>125.33193344837223</v>
+      </c>
+      <c r="W104">
+        <v>126.48107022058548</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-1.1491367722132537</v>
+      </c>
+      <c r="Y104">
+        <v>0.268504184988274</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>119.5</v>
+      </c>
+      <c r="D105">
+        <v>120.8</v>
+      </c>
+      <c r="E105">
+        <v>113.15</v>
+      </c>
+      <c r="F105">
+        <v>114.8</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>116.25</v>
+      </c>
+      <c r="H105">
+        <v>118.05510994614556</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>125.63091858494533</v>
+      </c>
+      <c r="K105">
+        <v>119.85106116926828</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>17.470109891315879</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>1.6499999999999915</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>7.6499999999999915</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.21568627450980304</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>123.7116359947765</v>
+      </c>
+      <c r="W105">
+        <v>125.61580575980138</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-1.904169765024875</v>
+      </c>
+      <c r="Y105">
+        <v>-0.16603060501435585</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>114.8</v>
+      </c>
+      <c r="D106">
+        <v>116.75</v>
+      </c>
+      <c r="E106">
+        <v>113.4</v>
+      </c>
+      <c r="F106">
+        <v>115.05</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>115.06666666666666</v>
+      </c>
+      <c r="H106">
+        <v>116.56088830640611</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>123.65738112162416</v>
+      </c>
+      <c r="K106">
+        <v>118.417492020542</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>19.174722569454765</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>1.6499999999999915</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>3.3499999999999943</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.49253731343283413</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>122.37907661096473</v>
+      </c>
+      <c r="W106">
+        <v>124.83315348129757</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-2.4540768703328411</v>
+      </c>
+      <c r="Y106">
+        <v>-0.62363985807805289</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>116</v>
+      </c>
+      <c r="D107">
+        <v>117.7</v>
+      </c>
+      <c r="E107">
+        <v>115.45</v>
+      </c>
+      <c r="F107">
+        <v>115.9</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>116.35000000000001</v>
+      </c>
+      <c r="H107">
+        <v>116.45544415320306</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>122.33351865015212</v>
+      </c>
+      <c r="K107">
+        <v>117.75804934931044</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>25.697144391231109</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>0.45000000000000284</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>2.25</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.20000000000000126</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>121.38229559389323</v>
+      </c>
+      <c r="W107">
+        <v>124.17143840860886</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-2.7891428147156319</v>
+      </c>
+      <c r="Y107">
+        <v>-1.0567404494055688</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
